--- a/python_requests/teach_api/excel_api_testcase_data/teach_testcase_data.xlsx
+++ b/python_requests/teach_api/excel_api_testcase_data/teach_testcase_data.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="3"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="增加课程" sheetId="1" r:id="rId1"/>
     <sheet name="删除课程" sheetId="2" r:id="rId2"/>
     <sheet name="修改课程" sheetId="3" r:id="rId3"/>
     <sheet name="查询课程" sheetId="4" r:id="rId4"/>
+    <sheet name="登录" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="77">
   <si>
     <t>用例编号</t>
   </si>
@@ -140,6 +141,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>{</t>
     </r>
     <r>
@@ -231,6 +239,118 @@
   <si>
     <t>{"retcode": 0, "retlist": [{"id": 1287, "name": "大学英语", "desc": "大学英语课程", "display_idx": 4}], "total": 1}</t>
   </si>
+  <si>
+    <t>teach_login_api_001</t>
+  </si>
+  <si>
+    <t>登录</t>
+  </si>
+  <si>
+    <t>登录_所有参数正确填写</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD73A49"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>api</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD73A49"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>mgr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD73A49"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>loginReq</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">POST </t>
+  </si>
+  <si>
+    <t>{"username":"auto","password":"sdfsdfsdf"}</t>
+  </si>
+  <si>
+    <t>{
+ "retcode": 0
+}</t>
+  </si>
+  <si>
+    <t>teach_login_api_002</t>
+  </si>
+  <si>
+    <t>登录_使用正确用户名错误密码登录</t>
+  </si>
+  <si>
+    <t>{"username":"auto","password":"sdfsdfsdf111"}</t>
+  </si>
+  <si>
+    <t>请求失败并返回相应的信息</t>
+  </si>
+  <si>
+    <t>{
+    "retcode": 1,
+    "reason": "用户或者密码错误"
+}</t>
+  </si>
+  <si>
+    <t>teach_login_api_003</t>
+  </si>
+  <si>
+    <t>登录_使用错误用户名正确密码登录</t>
+  </si>
+  <si>
+    <t>{"username":"auto111","password":"sdfsdfsdf"}</t>
+  </si>
+  <si>
+    <t>teach_login_api_004</t>
+  </si>
+  <si>
+    <t>登录_使用错误用户名错误密码登录</t>
+  </si>
+  <si>
+    <t>{"username":"auto111","password":"sdfsdfsdf111"}</t>
+  </si>
 </sst>
 </file>
 
@@ -242,7 +362,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -267,6 +387,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FFD73A49"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="宋体"/>
@@ -428,6 +554,12 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF24292E"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -799,10 +931,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -811,34 +943,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -850,94 +979,97 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -948,6 +1080,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -960,49 +1095,46 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1335,87 +1467,87 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="21.7407407407407" style="16" customWidth="1"/>
-    <col min="2" max="2" width="10.1111111111111" style="16" customWidth="1"/>
-    <col min="3" max="3" width="41.8148148148148" style="16" customWidth="1"/>
-    <col min="4" max="4" width="7.11111111111111" style="16" customWidth="1"/>
-    <col min="5" max="5" width="30.1944444444444" style="16" customWidth="1"/>
-    <col min="6" max="6" width="15.3333333333333" style="16" customWidth="1"/>
-    <col min="7" max="7" width="12.287037037037" style="16" customWidth="1"/>
-    <col min="8" max="8" width="27.8425925925926" style="16" customWidth="1"/>
-    <col min="9" max="9" width="30.1574074074074" style="16" customWidth="1"/>
-    <col min="10" max="10" width="29.6666666666667" style="16" customWidth="1"/>
-    <col min="11" max="11" width="35.3888888888889" style="16" customWidth="1"/>
-    <col min="12" max="16384" width="48.2314814814815" style="16"/>
+    <col min="1" max="1" width="21.7407407407407" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.1111111111111" style="2" customWidth="1"/>
+    <col min="3" max="3" width="41.8148148148148" style="2" customWidth="1"/>
+    <col min="4" max="4" width="7.11111111111111" style="2" customWidth="1"/>
+    <col min="5" max="5" width="30.1944444444444" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.3333333333333" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.287037037037" style="2" customWidth="1"/>
+    <col min="8" max="8" width="27.8425925925926" style="2" customWidth="1"/>
+    <col min="9" max="9" width="30.1574074074074" style="2" customWidth="1"/>
+    <col min="10" max="10" width="29.6666666666667" style="2" customWidth="1"/>
+    <col min="11" max="11" width="35.3888888888889" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="48.2314814814815" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.6" spans="1:12">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" ht="71" customHeight="1" spans="1:11">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="10" t="s">
         <v>21</v>
       </c>
       <c r="K2" s="20" t="s">
@@ -1423,72 +1555,72 @@
       </c>
     </row>
     <row r="3" ht="74" customHeight="1" spans="1:11">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="11" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" ht="67" customHeight="1" spans="1:11">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="11" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1505,7 +1637,7 @@
       <c r="K7" s="21"/>
     </row>
     <row r="8" spans="10:10">
-      <c r="J8" s="16" t="s">
+      <c r="J8" s="2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1531,79 +1663,79 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="23" style="9" customWidth="1"/>
-    <col min="2" max="2" width="13.1111111111111" style="9" customWidth="1"/>
-    <col min="3" max="3" width="15.4444444444444" style="9" customWidth="1"/>
-    <col min="4" max="4" width="6.22222222222222" style="9" customWidth="1"/>
-    <col min="5" max="5" width="22.3333333333333" style="9" customWidth="1"/>
-    <col min="6" max="7" width="8.88888888888889" style="9"/>
-    <col min="8" max="8" width="21.7777777777778" style="9" customWidth="1"/>
-    <col min="9" max="10" width="19.8888888888889" style="9" customWidth="1"/>
-    <col min="11" max="11" width="15.4444444444444" style="9" customWidth="1"/>
-    <col min="12" max="16384" width="8.88888888888889" style="9"/>
+    <col min="1" max="1" width="23" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.1111111111111" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.4444444444444" style="2" customWidth="1"/>
+    <col min="4" max="4" width="6.22222222222222" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22.3333333333333" style="2" customWidth="1"/>
+    <col min="6" max="7" width="8.88888888888889" style="2"/>
+    <col min="8" max="8" width="21.7777777777778" style="2" customWidth="1"/>
+    <col min="9" max="10" width="19.8888888888889" style="2" customWidth="1"/>
+    <col min="11" max="11" width="15.4444444444444" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="8.88888888888889" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="31.2" spans="1:12">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" ht="66" customHeight="1" spans="1:11">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I2" s="17" t="s">
@@ -1643,45 +1775,45 @@
     <col min="6" max="6" width="20.4444444444444" customWidth="1"/>
     <col min="7" max="7" width="7.44444444444444" customWidth="1"/>
     <col min="8" max="8" width="23.3333333333333" customWidth="1"/>
-    <col min="9" max="9" width="30.6666666666667" style="9" customWidth="1"/>
+    <col min="9" max="9" width="30.6666666666667" style="2" customWidth="1"/>
     <col min="11" max="11" width="13.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="31.2" spans="1:12">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1698,25 +1830,25 @@
       <c r="D2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="2" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1731,8 +1863,8 @@
   <sheetPr/>
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
@@ -1750,40 +1882,40 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="31.2" spans="1:12">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1803,23 +1935,231 @@
       <c r="E2" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="9" t="s">
         <v>47</v>
       </c>
       <c r="G2" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="11" t="s">
         <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4"/>
+  <cols>
+    <col min="1" max="1" width="20.5555555555556" customWidth="1"/>
+    <col min="2" max="2" width="7.33333333333333" customWidth="1"/>
+    <col min="3" max="3" width="32.1111111111111" customWidth="1"/>
+    <col min="4" max="4" width="6.77777777777778" customWidth="1"/>
+    <col min="5" max="5" width="18.5555555555556" customWidth="1"/>
+    <col min="6" max="6" width="13.6666666666667" customWidth="1"/>
+    <col min="7" max="7" width="7.33333333333333" customWidth="1"/>
+    <col min="8" max="8" width="26.8888888888889" style="2" customWidth="1"/>
+    <col min="9" max="9" width="18.4444444444444" style="2" customWidth="1"/>
+    <col min="10" max="10" width="24.6666666666667" customWidth="1"/>
+    <col min="11" max="11" width="14.3333333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="31.2" spans="1:12">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" ht="43.2" spans="1:11">
+      <c r="A2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" ht="100.8" spans="1:11">
+      <c r="A3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" ht="100.8" spans="1:11">
+      <c r="A4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" ht="100.8" spans="1:11">
+      <c r="A5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
